--- a/220527_mid_cap.xlsx
+++ b/220527_mid_cap.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,15 +385,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Growth</t>
+          <t>PE19_21</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PE19_21</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>PB</t>
         </is>
@@ -424,12 +419,9 @@
         <v>483.52932786</v>
       </c>
       <c r="F2">
-        <v>1.02259887</v>
+        <v>11.23743017</v>
       </c>
       <c r="G2">
-        <v>11.23743017</v>
-      </c>
-      <c r="H2">
         <v>1.068525896</v>
       </c>
     </row>
@@ -458,12 +450,9 @@
         <v>465.04171498</v>
       </c>
       <c r="F3">
-        <v>0.659744035</v>
+        <v>4.87233081</v>
       </c>
       <c r="G3">
-        <v>4.87233081</v>
-      </c>
-      <c r="H3">
         <v>0.603826686</v>
       </c>
     </row>
@@ -492,12 +481,9 @@
         <v>437.11869839</v>
       </c>
       <c r="F4">
-        <v>5.699156118</v>
+        <v>10.54355357</v>
       </c>
       <c r="G4">
-        <v>10.54355357</v>
-      </c>
-      <c r="H4">
         <v>1.199432527</v>
       </c>
     </row>
@@ -526,12 +512,9 @@
         <v>208.79253099</v>
       </c>
       <c r="F5">
-        <v>0.63304721</v>
+        <v>8.23521682</v>
       </c>
       <c r="G5">
-        <v>8.23521682</v>
-      </c>
-      <c r="H5">
         <v>1.086204835</v>
       </c>
     </row>
@@ -560,12 +543,9 @@
         <v>251.66100609</v>
       </c>
       <c r="F6">
-        <v>1.105263158</v>
+        <v>12.91071429</v>
       </c>
       <c r="G6">
-        <v>12.91071429</v>
-      </c>
-      <c r="H6">
         <v>0.501425213</v>
       </c>
     </row>
@@ -594,12 +574,9 @@
         <v>289.13548564</v>
       </c>
       <c r="F7">
-        <v>0.616686114</v>
+        <v>8.498736918000001</v>
       </c>
       <c r="G7">
-        <v>8.498736918000001</v>
-      </c>
-      <c r="H7">
         <v>1.160127097</v>
       </c>
     </row>
@@ -628,12 +605,9 @@
         <v>293.73739095</v>
       </c>
       <c r="F8">
-        <v>0.770606193</v>
+        <v>11.26108374</v>
       </c>
       <c r="G8">
-        <v>11.26108374</v>
-      </c>
-      <c r="H8">
         <v>0.736078979</v>
       </c>
     </row>
@@ -662,12 +636,9 @@
         <v>294.38505913</v>
       </c>
       <c r="F9">
-        <v>2.450819672</v>
+        <v>10.89548694</v>
       </c>
       <c r="G9">
-        <v>10.89548694</v>
-      </c>
-      <c r="H9">
         <v>1.440943917</v>
       </c>
     </row>
@@ -696,12 +667,9 @@
         <v>241.75919025</v>
       </c>
       <c r="F10">
-        <v>0.555555556</v>
+        <v>10.63392857</v>
       </c>
       <c r="G10">
-        <v>10.63392857</v>
-      </c>
-      <c r="H10">
         <v>1.200465672</v>
       </c>
     </row>
@@ -730,14 +698,11 @@
         <v>457.25439701</v>
       </c>
       <c r="F11">
-        <v>0.38320356</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -764,12 +729,9 @@
         <v>220.5951607</v>
       </c>
       <c r="F12">
-        <v>1.479044615</v>
+        <v>7.784948191</v>
       </c>
       <c r="G12">
-        <v>7.784948191</v>
-      </c>
-      <c r="H12">
         <v>1.341383199</v>
       </c>
     </row>
@@ -798,12 +760,9 @@
         <v>206.7370269</v>
       </c>
       <c r="F13">
-        <v>0.419813416</v>
+        <v>8.804755945</v>
       </c>
       <c r="G13">
-        <v>8.804755945</v>
-      </c>
-      <c r="H13">
         <v>0.9911137880000001</v>
       </c>
     </row>
@@ -832,12 +791,9 @@
         <v>375.42195699</v>
       </c>
       <c r="F14">
-        <v>0.728185813</v>
+        <v>10.62477297</v>
       </c>
       <c r="G14">
-        <v>10.62477297</v>
-      </c>
-      <c r="H14">
         <v>1.107023639</v>
       </c>
     </row>
@@ -866,12 +822,9 @@
         <v>211.55886755</v>
       </c>
       <c r="F15">
-        <v>1.603896104</v>
+        <v>10.36907731</v>
       </c>
       <c r="G15">
-        <v>10.36907731</v>
-      </c>
-      <c r="H15">
         <v>0.757575758</v>
       </c>
     </row>
@@ -900,12 +853,9 @@
         <v>222.42830265</v>
       </c>
       <c r="F16">
-        <v>1.812030075</v>
+        <v>9.64171123</v>
       </c>
       <c r="G16">
-        <v>9.64171123</v>
-      </c>
-      <c r="H16">
         <v>1.073415551</v>
       </c>
     </row>
@@ -934,12 +884,9 @@
         <v>392.28914151</v>
       </c>
       <c r="F17">
-        <v>3.724409449</v>
+        <v>8.26</v>
       </c>
       <c r="G17">
-        <v>8.26</v>
-      </c>
-      <c r="H17">
         <v>1.111492374</v>
       </c>
     </row>
@@ -968,12 +915,9 @@
         <v>471.44608992</v>
       </c>
       <c r="F18">
-        <v>3.92</v>
+        <v>12.88617886</v>
       </c>
       <c r="G18">
-        <v>12.88617886</v>
-      </c>
-      <c r="H18">
         <v>1.36964994</v>
       </c>
     </row>
